--- a/costs.xlsx
+++ b/costs.xlsx
@@ -1,16 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="16925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17030"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" tabRatio="747" activeTab="6"/>
   </bookViews>
   <sheets>
-    <sheet name="行人" sheetId="1" r:id="rId1"/>
-    <sheet name="通行" sheetId="2" r:id="rId2"/>
-    <sheet name="因子" sheetId="4" r:id="rId3"/>
-    <sheet name="000" sheetId="3" r:id="rId4"/>
+    <sheet name="行人类型" sheetId="1" r:id="rId1"/>
+    <sheet name="通行类型" sheetId="2" r:id="rId2"/>
+    <sheet name="地表类型" sheetId="11" r:id="rId3"/>
+    <sheet name="通行目标" sheetId="6" r:id="rId4"/>
+    <sheet name="0000" sheetId="3" r:id="rId5"/>
+    <sheet name="0010" sheetId="5" r:id="rId6"/>
+    <sheet name="0020" sheetId="13" r:id="rId7"/>
+    <sheet name="0030" sheetId="14" r:id="rId8"/>
+    <sheet name="0040" sheetId="15" r:id="rId9"/>
+    <sheet name="0001" sheetId="7" r:id="rId10"/>
+    <sheet name="0002" sheetId="8" r:id="rId11"/>
+    <sheet name="0003" sheetId="12" r:id="rId12"/>
+    <sheet name="0011" sheetId="9" r:id="rId13"/>
+    <sheet name="0012" sheetId="10" r:id="rId14"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -22,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="27">
   <si>
     <t>成年</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -48,11 +58,39 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>地表类型</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>地形坡度</t>
+    <t>道路</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>建筑物</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>草地</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>河流</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>平地</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>地表属性</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>时间(h/km)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>体力(卡/km)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>时间</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -60,11 +98,47 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>时间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>体力</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>坡度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>道路</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>草地</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>河流</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>建筑物</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>平地</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>体力(卡/km)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>坡度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>速度(km/h)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -108,8 +182,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -427,7 +504,7 @@
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J10" sqref="J10"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -463,12 +540,429 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E23" sqref="E23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="3" max="3" width="10.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" s="1">
+        <v>0</v>
+      </c>
+      <c r="B2" s="1">
+        <v>0</v>
+      </c>
+      <c r="C2" s="1">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3" s="1">
+        <v>10</v>
+      </c>
+      <c r="C3" s="1">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
+      <c r="B4" s="1">
+        <v>20</v>
+      </c>
+      <c r="C4" s="1">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5" s="1">
+        <v>3</v>
+      </c>
+      <c r="B5" s="1">
+        <v>45</v>
+      </c>
+      <c r="C5" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6" s="1">
+        <v>4</v>
+      </c>
+      <c r="B6" s="1">
+        <v>80</v>
+      </c>
+      <c r="C6" s="1">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:C6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="3" max="3" width="11.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" s="1">
+        <v>0</v>
+      </c>
+      <c r="B2" s="1">
+        <v>0</v>
+      </c>
+      <c r="C2" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3" s="1">
+        <v>10</v>
+      </c>
+      <c r="C3" s="1">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
+      <c r="B4" s="1">
+        <v>20</v>
+      </c>
+      <c r="C4" s="1">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5" s="1">
+        <v>3</v>
+      </c>
+      <c r="B5" s="1">
+        <v>45</v>
+      </c>
+      <c r="C5" s="1">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6" s="1">
+        <v>4</v>
+      </c>
+      <c r="B6" s="1">
+        <v>80</v>
+      </c>
+      <c r="C6" s="1">
+        <v>9999</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2">
+        <v>9999</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5">
+        <v>9999</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6">
+        <v>9999</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:C6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" s="1">
+        <v>0</v>
+      </c>
+      <c r="B2" s="1">
+        <v>0</v>
+      </c>
+      <c r="C2" s="1">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3" s="1">
+        <v>10</v>
+      </c>
+      <c r="C3" s="1">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
+      <c r="B4" s="1">
+        <v>20</v>
+      </c>
+      <c r="C4" s="1">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5" s="1">
+        <v>3</v>
+      </c>
+      <c r="B5" s="1">
+        <v>45</v>
+      </c>
+      <c r="C5" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6" s="1">
+        <v>4</v>
+      </c>
+      <c r="B6" s="1">
+        <v>80</v>
+      </c>
+      <c r="C6" s="1">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:C6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" s="1">
+        <v>0</v>
+      </c>
+      <c r="B2" s="1">
+        <v>0</v>
+      </c>
+      <c r="C2" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3" s="1">
+        <v>10</v>
+      </c>
+      <c r="C3" s="1">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
+      <c r="B4" s="1">
+        <v>20</v>
+      </c>
+      <c r="C4" s="1">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5" s="1">
+        <v>3</v>
+      </c>
+      <c r="B5" s="1">
+        <v>45</v>
+      </c>
+      <c r="C5" s="1">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6" s="1">
+        <v>4</v>
+      </c>
+      <c r="B6" s="1">
+        <v>80</v>
+      </c>
+      <c r="C6" s="1">
+        <v>9999</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -507,8 +1001,62 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B3"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -518,7 +1066,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
@@ -526,7 +1074,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
@@ -534,23 +1082,345 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A4">
+        <v>16</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C6"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="8.25" customWidth="1"/>
+    <col min="2" max="2" width="9.25" customWidth="1"/>
+    <col min="3" max="3" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" s="1">
+        <v>0</v>
+      </c>
+      <c r="B2" s="1">
+        <v>0</v>
+      </c>
+      <c r="C2" s="1">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3" s="1">
+        <v>10</v>
+      </c>
+      <c r="C3" s="1">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
+      <c r="B4" s="1">
+        <v>20</v>
+      </c>
+      <c r="C4" s="1">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5" s="1">
         <v>3</v>
       </c>
-      <c r="B4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A5">
+      <c r="B5" s="1">
+        <v>45</v>
+      </c>
+      <c r="C5" s="1">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6" s="1">
         <v>4</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B6" s="1">
+        <v>80</v>
+      </c>
+      <c r="C6" s="1">
+        <v>9999</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" s="1">
+        <v>0</v>
+      </c>
+      <c r="B2" s="1">
+        <v>0</v>
+      </c>
+      <c r="C2" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3" s="1">
         <v>10</v>
+      </c>
+      <c r="C3" s="1">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
+      <c r="B4" s="1">
+        <v>20</v>
+      </c>
+      <c r="C4" s="1">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5" s="1">
+        <v>3</v>
+      </c>
+      <c r="B5" s="1">
+        <v>45</v>
+      </c>
+      <c r="C5" s="1">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6" s="1">
+        <v>4</v>
+      </c>
+      <c r="B6" s="1">
+        <v>80</v>
+      </c>
+      <c r="C6" s="1">
+        <v>9999</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" s="1">
+        <v>0</v>
+      </c>
+      <c r="B2" s="1">
+        <v>0</v>
+      </c>
+      <c r="C2" s="1">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3" s="1">
+        <v>10</v>
+      </c>
+      <c r="C3" s="1">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
+      <c r="B4" s="1">
+        <v>20</v>
+      </c>
+      <c r="C4" s="1">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5" s="1">
+        <v>3</v>
+      </c>
+      <c r="B5" s="1">
+        <v>45</v>
+      </c>
+      <c r="C5" s="1">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6" s="1">
+        <v>4</v>
+      </c>
+      <c r="B6" s="1">
+        <v>80</v>
+      </c>
+      <c r="C6" s="1">
+        <v>9999</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" s="1">
+        <v>0</v>
+      </c>
+      <c r="B2" s="1">
+        <v>0</v>
+      </c>
+      <c r="C2" s="1">
+        <v>9999</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3" s="1">
+        <v>10</v>
+      </c>
+      <c r="C3" s="1">
+        <v>9999</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
+      <c r="B4" s="1">
+        <v>20</v>
+      </c>
+      <c r="C4" s="1">
+        <v>9999</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5" s="1">
+        <v>3</v>
+      </c>
+      <c r="B5" s="1">
+        <v>45</v>
+      </c>
+      <c r="C5" s="1">
+        <v>9999</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6" s="1">
+        <v>4</v>
+      </c>
+      <c r="B6" s="1">
+        <v>80</v>
+      </c>
+      <c r="C6" s="1">
+        <v>9999</v>
       </c>
     </row>
   </sheetData>
@@ -559,14 +1429,83 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" s="1">
+        <v>0</v>
+      </c>
+      <c r="B2" s="1">
+        <v>0</v>
+      </c>
+      <c r="C2" s="1">
+        <v>9999</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3" s="1">
+        <v>10</v>
+      </c>
+      <c r="C3" s="1">
+        <v>9999</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
+      <c r="B4" s="1">
+        <v>20</v>
+      </c>
+      <c r="C4" s="1">
+        <v>9999</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5" s="1">
+        <v>3</v>
+      </c>
+      <c r="B5" s="1">
+        <v>45</v>
+      </c>
+      <c r="C5" s="1">
+        <v>9999</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6" s="1">
+        <v>4</v>
+      </c>
+      <c r="B6" s="1">
+        <v>80</v>
+      </c>
+      <c r="C6" s="1">
+        <v>9999</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
